--- a/data/copas_mr.xlsx
+++ b/data/copas_mr.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tales\Documents\DATA_SCIENCE\CURSOS\CESAR SCHOOL\Analise e Visualização de dados\dash-analise\dash-mrleague\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tales\Documents\GitHub\mrleague_2023_webapp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -192,18 +192,6 @@
     <t>ATRASO PAGTO</t>
   </si>
   <si>
-    <t>AMARELO</t>
-  </si>
-  <si>
-    <t>PRETO</t>
-  </si>
-  <si>
-    <t>BRANCO</t>
-  </si>
-  <si>
-    <t>VERMELHO</t>
-  </si>
-  <si>
     <t>Manhã</t>
   </si>
   <si>
@@ -226,6 +214,18 @@
   </si>
   <si>
     <t>COPA</t>
+  </si>
+  <si>
+    <t>Amarelo</t>
+  </si>
+  <si>
+    <t>Branco</t>
+  </si>
+  <si>
+    <t>Preto</t>
+  </si>
+  <si>
+    <t>Vermelho</t>
   </si>
 </sst>
 </file>
@@ -626,7 +626,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,7 +645,7 @@
         <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>33</v>
@@ -716,7 +716,7 @@
         <v>44998</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -731,7 +731,7 @@
         <v>43</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -761,7 +761,7 @@
         <v>44998</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -776,7 +776,7 @@
         <v>45</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -804,7 +804,7 @@
         <v>44998</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -819,7 +819,7 @@
         <v>46</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -847,7 +847,7 @@
         <v>44998</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -862,7 +862,7 @@
         <v>45</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -890,7 +890,7 @@
         <v>44998</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -905,7 +905,7 @@
         <v>44</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -933,7 +933,7 @@
         <v>44998</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -948,7 +948,7 @@
         <v>46</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -976,7 +976,7 @@
         <v>44998</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -991,7 +991,7 @@
         <v>43</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -1021,7 +1021,7 @@
         <v>44998</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -1036,7 +1036,7 @@
         <v>44</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -1066,7 +1066,7 @@
         <v>44998</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
@@ -1081,7 +1081,7 @@
         <v>45</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -1111,7 +1111,7 @@
         <v>44998</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -1126,7 +1126,7 @@
         <v>46</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -1156,7 +1156,7 @@
         <v>44998</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
@@ -1171,7 +1171,7 @@
         <v>45</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -1203,7 +1203,7 @@
         <v>44998</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -1218,7 +1218,7 @@
         <v>45</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -1250,7 +1250,7 @@
         <v>44998</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -1265,7 +1265,7 @@
         <v>43</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3">
@@ -1295,7 +1295,7 @@
         <v>44998</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
@@ -1310,7 +1310,7 @@
         <v>44</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3">
@@ -1340,7 +1340,7 @@
         <v>44998</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -1355,7 +1355,7 @@
         <v>45</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3">
@@ -1387,7 +1387,7 @@
         <v>44998</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
@@ -1396,13 +1396,13 @@
         <v>2</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3">
@@ -1430,7 +1430,7 @@
         <v>44998</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -1445,7 +1445,7 @@
         <v>45</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3">
@@ -1477,7 +1477,7 @@
         <v>44998</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
@@ -1492,7 +1492,7 @@
         <v>46</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3">
@@ -1520,7 +1520,7 @@
         <v>44998</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -1535,7 +1535,7 @@
         <v>43</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3">
@@ -1567,7 +1567,7 @@
         <v>44998</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
@@ -1582,7 +1582,7 @@
         <v>44</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3">
@@ -1610,7 +1610,7 @@
         <v>44998</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -1625,7 +1625,7 @@
         <v>45</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3">
@@ -1655,7 +1655,7 @@
         <v>44998</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -1670,7 +1670,7 @@
         <v>46</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3">
@@ -1700,7 +1700,7 @@
         <v>44998</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -1715,7 +1715,7 @@
         <v>45</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3">
@@ -1743,7 +1743,7 @@
         <v>44998</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
@@ -1758,7 +1758,7 @@
         <v>45</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3">
@@ -1786,7 +1786,7 @@
         <v>44998</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -1801,7 +1801,7 @@
         <v>43</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -1831,7 +1831,7 @@
         <v>44998</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C27" s="4">
         <v>1</v>
@@ -1846,7 +1846,7 @@
         <v>44</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -1874,7 +1874,7 @@
         <v>44998</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
@@ -1889,7 +1889,7 @@
         <v>45</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -1917,7 +1917,7 @@
         <v>44998</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C29" s="4">
         <v>1</v>
@@ -1926,13 +1926,13 @@
         <v>3</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>46</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -1960,7 +1960,7 @@
         <v>44998</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C30" s="4">
         <v>1</v>
@@ -1975,7 +1975,7 @@
         <v>45</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -2003,7 +2003,7 @@
         <v>44998</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C31" s="4">
         <v>1</v>
@@ -2018,7 +2018,7 @@
         <v>46</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -2046,7 +2046,7 @@
         <v>44998</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C32" s="4">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         <v>43</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H32" s="3">
         <v>1</v>
@@ -2093,7 +2093,7 @@
         <v>44998</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
@@ -2108,7 +2108,7 @@
         <v>44</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H33" s="3">
         <v>1</v>
@@ -2138,7 +2138,7 @@
         <v>44998</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
@@ -2153,7 +2153,7 @@
         <v>45</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
@@ -2185,7 +2185,7 @@
         <v>44998</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C35" s="4">
         <v>1</v>
@@ -2200,7 +2200,7 @@
         <v>45</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H35" s="3">
         <v>1</v>
@@ -2230,7 +2230,7 @@
         <v>44998</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C36" s="4">
         <v>1</v>
@@ -2245,7 +2245,7 @@
         <v>44</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H36" s="3">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         <v>44998</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -2292,7 +2292,7 @@
         <v>46</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H37" s="3">
         <v>1</v>
@@ -2324,7 +2324,7 @@
         <v>44998</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C38" s="4">
         <v>1</v>
@@ -2339,7 +2339,7 @@
         <v>43</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3">
@@ -2369,7 +2369,7 @@
         <v>44998</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C39" s="4">
         <v>1</v>
@@ -2384,7 +2384,7 @@
         <v>45</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3">
@@ -2412,7 +2412,7 @@
         <v>44998</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C40" s="4">
         <v>1</v>
@@ -2427,7 +2427,7 @@
         <v>46</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3">
@@ -2457,7 +2457,7 @@
         <v>44998</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
@@ -2472,7 +2472,7 @@
         <v>45</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3">
@@ -2500,7 +2500,7 @@
         <v>44998</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C42" s="4">
         <v>1</v>
@@ -2515,7 +2515,7 @@
         <v>44</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3">
@@ -2545,7 +2545,7 @@
         <v>44998</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C43" s="4">
         <v>1</v>
@@ -2560,7 +2560,7 @@
         <v>46</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3">
@@ -2588,7 +2588,7 @@
         <v>44998</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C44" s="4">
         <v>1</v>
@@ -2603,7 +2603,7 @@
         <v>43</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3">
@@ -2633,7 +2633,7 @@
         <v>44998</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C45" s="4">
         <v>1</v>
@@ -2648,7 +2648,7 @@
         <v>44</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3">
@@ -2676,7 +2676,7 @@
         <v>44998</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C46" s="4">
         <v>1</v>
@@ -2691,7 +2691,7 @@
         <v>45</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3">
@@ -2721,7 +2721,7 @@
         <v>44998</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C47" s="4">
         <v>1</v>
@@ -2736,7 +2736,7 @@
         <v>45</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3">
@@ -2764,7 +2764,7 @@
         <v>44998</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C48" s="4">
         <v>1</v>
@@ -2779,7 +2779,7 @@
         <v>44</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3">
@@ -2809,7 +2809,7 @@
         <v>44998</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C49" s="4">
         <v>1</v>
@@ -2824,7 +2824,7 @@
         <v>46</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3">
@@ -2852,7 +2852,7 @@
         <v>44998</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C50" s="4">
         <v>1</v>
@@ -2867,7 +2867,7 @@
         <v>43</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -2897,7 +2897,7 @@
         <v>44998</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C51" s="4">
         <v>1</v>
@@ -2912,7 +2912,7 @@
         <v>45</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -2940,7 +2940,7 @@
         <v>44998</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C52" s="4">
         <v>1</v>
@@ -2955,7 +2955,7 @@
         <v>46</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -2983,7 +2983,7 @@
         <v>44998</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C53" s="4">
         <v>1</v>
@@ -2998,7 +2998,7 @@
         <v>45</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -3026,7 +3026,7 @@
         <v>44998</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C54" s="4">
         <v>1</v>
@@ -3041,7 +3041,7 @@
         <v>44</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -3069,7 +3069,7 @@
         <v>44998</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C55" s="4">
         <v>1</v>
@@ -3084,7 +3084,7 @@
         <v>46</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -3112,7 +3112,7 @@
         <v>44998</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
@@ -3127,7 +3127,7 @@
         <v>43</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H56" s="3">
         <v>1</v>
@@ -3157,7 +3157,7 @@
         <v>44998</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C57" s="4">
         <v>1</v>
@@ -3172,7 +3172,7 @@
         <v>44</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H57" s="3">
         <v>1</v>
@@ -3204,7 +3204,7 @@
         <v>44998</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C58" s="4">
         <v>1</v>
@@ -3219,7 +3219,7 @@
         <v>45</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H58" s="3">
         <v>1</v>
@@ -3251,7 +3251,7 @@
         <v>44998</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C59" s="4">
         <v>1</v>
@@ -3260,13 +3260,13 @@
         <v>5</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H59" s="3">
         <v>1</v>
@@ -3296,7 +3296,7 @@
         <v>44998</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C60" s="4">
         <v>1</v>
@@ -3311,7 +3311,7 @@
         <v>45</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H60" s="3">
         <v>1</v>
@@ -3341,7 +3341,7 @@
         <v>44998</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C61" s="4">
         <v>1</v>
@@ -3356,7 +3356,7 @@
         <v>46</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H61" s="3">
         <v>1</v>
@@ -3386,7 +3386,7 @@
         <v>44998</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C62" s="4">
         <v>1</v>
@@ -3401,7 +3401,7 @@
         <v>43</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3">
@@ -3431,7 +3431,7 @@
         <v>44998</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C63" s="4">
         <v>1</v>
@@ -3446,7 +3446,7 @@
         <v>44</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3">
@@ -3474,7 +3474,7 @@
         <v>44998</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C64" s="4">
         <v>1</v>
@@ -3489,7 +3489,7 @@
         <v>45</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3">
@@ -3519,7 +3519,7 @@
         <v>44998</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C65" s="4">
         <v>1</v>
@@ -3534,7 +3534,7 @@
         <v>46</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3">
@@ -3562,7 +3562,7 @@
         <v>44998</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C66" s="4">
         <v>1</v>
@@ -3577,7 +3577,7 @@
         <v>45</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3">
@@ -3605,7 +3605,7 @@
         <v>44998</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C67" s="4">
         <v>1</v>
@@ -3620,7 +3620,7 @@
         <v>45</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3">
@@ -3648,7 +3648,7 @@
         <v>44998</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C68" s="4">
         <v>1</v>
@@ -3663,7 +3663,7 @@
         <v>43</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3">
@@ -3693,7 +3693,7 @@
         <v>44998</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C69" s="4">
         <v>1</v>
@@ -3708,7 +3708,7 @@
         <v>44</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H69" s="3"/>
       <c r="I69" s="3">
@@ -3738,7 +3738,7 @@
         <v>44998</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C70" s="4">
         <v>1</v>
@@ -3753,7 +3753,7 @@
         <v>45</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="3">
@@ -3781,7 +3781,7 @@
         <v>44998</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C71" s="4">
         <v>1</v>
@@ -3796,7 +3796,7 @@
         <v>45</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="3">
@@ -3826,7 +3826,7 @@
         <v>44998</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C72" s="4">
         <v>1</v>
@@ -3841,7 +3841,7 @@
         <v>44</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3">
@@ -3869,7 +3869,7 @@
         <v>44998</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C73" s="4">
         <v>1</v>
@@ -3884,7 +3884,7 @@
         <v>46</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="3">
@@ -3912,7 +3912,7 @@
         <v>44998</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C74" s="4">
         <v>1</v>
@@ -3927,7 +3927,7 @@
         <v>43</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H74" s="3">
         <v>1</v>
@@ -3957,7 +3957,7 @@
         <v>44998</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C75" s="4">
         <v>1</v>
@@ -3972,7 +3972,7 @@
         <v>44</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H75" s="3">
         <v>1</v>
@@ -4002,7 +4002,7 @@
         <v>44998</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C76" s="4">
         <v>1</v>
@@ -4017,7 +4017,7 @@
         <v>45</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H76" s="3">
         <v>1</v>
@@ -4045,7 +4045,7 @@
         <v>44998</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C77" s="4">
         <v>1</v>
@@ -4054,13 +4054,13 @@
         <v>7</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>46</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H77" s="3">
         <v>1</v>
@@ -4092,7 +4092,7 @@
         <v>44998</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C78" s="4">
         <v>1</v>
@@ -4107,7 +4107,7 @@
         <v>45</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H78" s="3">
         <v>1</v>
@@ -4137,7 +4137,7 @@
         <v>44998</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C79" s="4">
         <v>1</v>
@@ -4152,7 +4152,7 @@
         <v>46</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H79" s="3">
         <v>1</v>
@@ -4182,7 +4182,7 @@
         <v>44998</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C80" s="4">
         <v>1</v>
@@ -4197,7 +4197,7 @@
         <v>43</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
@@ -4229,7 +4229,7 @@
         <v>44998</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C81" s="4">
         <v>1</v>
@@ -4244,7 +4244,7 @@
         <v>44</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
@@ -4274,7 +4274,7 @@
         <v>44998</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C82" s="4">
         <v>1</v>
@@ -4289,7 +4289,7 @@
         <v>45</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -4319,7 +4319,7 @@
         <v>44998</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C83" s="4">
         <v>1</v>
@@ -4334,7 +4334,7 @@
         <v>45</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -4362,7 +4362,7 @@
         <v>44998</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C84" s="4">
         <v>1</v>
@@ -4377,7 +4377,7 @@
         <v>44</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -4405,7 +4405,7 @@
         <v>44998</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C85" s="4">
         <v>1</v>
@@ -4420,7 +4420,7 @@
         <v>46</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
@@ -4450,7 +4450,7 @@
         <v>44998</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C86" s="4">
         <v>1</v>
@@ -4465,7 +4465,7 @@
         <v>43</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
@@ -4497,7 +4497,7 @@
         <v>44998</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C87" s="4">
         <v>1</v>
@@ -4512,7 +4512,7 @@
         <v>44</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -4540,7 +4540,7 @@
         <v>44998</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C88" s="4">
         <v>1</v>
@@ -4555,7 +4555,7 @@
         <v>45</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -4583,7 +4583,7 @@
         <v>44998</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C89" s="4">
         <v>1</v>
@@ -4592,13 +4592,13 @@
         <v>8</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -4626,7 +4626,7 @@
         <v>44998</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C90" s="4">
         <v>1</v>
@@ -4641,7 +4641,7 @@
         <v>45</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
@@ -4669,7 +4669,7 @@
         <v>44998</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C91" s="4">
         <v>1</v>
@@ -4684,7 +4684,7 @@
         <v>46</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
@@ -4714,7 +4714,7 @@
         <v>44998</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C92" s="4">
         <v>1</v>
@@ -4729,7 +4729,7 @@
         <v>43</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H92" s="3">
         <v>1</v>
@@ -4761,7 +4761,7 @@
         <v>44998</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C93" s="4">
         <v>1</v>
@@ -4776,7 +4776,7 @@
         <v>44</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H93" s="3">
         <v>1</v>
@@ -4804,7 +4804,7 @@
         <v>44998</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C94" s="4">
         <v>1</v>
@@ -4819,7 +4819,7 @@
         <v>45</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H94" s="3">
         <v>1</v>
@@ -4849,7 +4849,7 @@
         <v>44998</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C95" s="4">
         <v>1</v>
@@ -4864,7 +4864,7 @@
         <v>46</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H95" s="3">
         <v>1</v>
@@ -4894,7 +4894,7 @@
         <v>44998</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C96" s="4">
         <v>1</v>
@@ -4909,7 +4909,7 @@
         <v>45</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H96" s="3">
         <v>1</v>
@@ -4937,7 +4937,7 @@
         <v>44998</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C97" s="4">
         <v>1</v>
@@ -4952,7 +4952,7 @@
         <v>45</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H97" s="3">
         <v>1</v>
@@ -4982,7 +4982,7 @@
         <v>45033</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C98" s="4">
         <v>2</v>
@@ -4997,7 +4997,7 @@
         <v>43</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H98" s="3">
         <v>1</v>
@@ -5027,7 +5027,7 @@
         <v>45033</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C99" s="4">
         <v>2</v>
@@ -5042,7 +5042,7 @@
         <v>46</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H99" s="3">
         <v>1</v>
@@ -5074,7 +5074,7 @@
         <v>45033</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C100" s="4">
         <v>2</v>
@@ -5089,7 +5089,7 @@
         <v>46</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H100" s="3">
         <v>1</v>
@@ -5121,7 +5121,7 @@
         <v>45033</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C101" s="4">
         <v>2</v>
@@ -5136,7 +5136,7 @@
         <v>45</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H101" s="3">
         <v>1</v>
@@ -5166,7 +5166,7 @@
         <v>45033</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C102" s="4">
         <v>2</v>
@@ -5181,7 +5181,7 @@
         <v>45</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H102" s="3">
         <v>1</v>
@@ -5211,7 +5211,7 @@
         <v>45033</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C103" s="4">
         <v>2</v>
@@ -5226,7 +5226,7 @@
         <v>44</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H103" s="3">
         <v>1</v>
@@ -5258,7 +5258,7 @@
         <v>45033</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C104" s="4">
         <v>2</v>
@@ -5273,7 +5273,7 @@
         <v>43</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
@@ -5303,7 +5303,7 @@
         <v>45033</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C105" s="4">
         <v>2</v>
@@ -5318,7 +5318,7 @@
         <v>45</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
@@ -5346,7 +5346,7 @@
         <v>45033</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C106" s="4">
         <v>2</v>
@@ -5355,13 +5355,13 @@
         <v>9</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
@@ -5389,7 +5389,7 @@
         <v>45033</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C107" s="4">
         <v>2</v>
@@ -5404,7 +5404,7 @@
         <v>44</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
@@ -5432,7 +5432,7 @@
         <v>45033</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C108" s="4">
         <v>2</v>
@@ -5447,7 +5447,7 @@
         <v>46</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
@@ -5475,7 +5475,7 @@
         <v>45033</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C109" s="4">
         <v>2</v>
@@ -5490,7 +5490,7 @@
         <v>45</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
@@ -5518,7 +5518,7 @@
         <v>45033</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C110" s="4">
         <v>2</v>
@@ -5533,7 +5533,7 @@
         <v>43</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H110" s="3"/>
       <c r="I110" s="3">
@@ -5563,7 +5563,7 @@
         <v>45033</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C111" s="4">
         <v>2</v>
@@ -5572,13 +5572,13 @@
         <v>10</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H111" s="3"/>
       <c r="I111" s="3">
@@ -5608,7 +5608,7 @@
         <v>45033</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C112" s="4">
         <v>2</v>
@@ -5623,7 +5623,7 @@
         <v>45</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H112" s="3"/>
       <c r="I112" s="3">
@@ -5651,7 +5651,7 @@
         <v>45033</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C113" s="4">
         <v>2</v>
@@ -5660,13 +5660,13 @@
         <v>10</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H113" s="3"/>
       <c r="I113" s="3">
@@ -5694,7 +5694,7 @@
         <v>45033</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C114" s="4">
         <v>2</v>
@@ -5709,7 +5709,7 @@
         <v>45</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H114" s="3"/>
       <c r="I114" s="3">
@@ -5739,7 +5739,7 @@
         <v>45033</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C115" s="4">
         <v>2</v>
@@ -5754,7 +5754,7 @@
         <v>44</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H115" s="3"/>
       <c r="I115" s="3">
@@ -5782,7 +5782,7 @@
         <v>45033</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C116" s="4">
         <v>2</v>
@@ -5797,7 +5797,7 @@
         <v>43</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H116" s="3"/>
       <c r="I116" s="3">
@@ -5827,7 +5827,7 @@
         <v>45033</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C117" s="4">
         <v>2</v>
@@ -5842,7 +5842,7 @@
         <v>45</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H117" s="3"/>
       <c r="I117" s="3">
@@ -5872,7 +5872,7 @@
         <v>45033</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C118" s="4">
         <v>2</v>
@@ -5881,13 +5881,13 @@
         <v>10</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H118" s="3"/>
       <c r="I118" s="3">
@@ -5915,7 +5915,7 @@
         <v>45033</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C119" s="4">
         <v>2</v>
@@ -5930,7 +5930,7 @@
         <v>44</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H119" s="3"/>
       <c r="I119" s="3">
@@ -5958,7 +5958,7 @@
         <v>45033</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C120" s="4">
         <v>2</v>
@@ -5967,13 +5967,13 @@
         <v>10</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H120" s="3"/>
       <c r="I120" s="3">
@@ -6005,7 +6005,7 @@
         <v>45033</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C121" s="4">
         <v>2</v>
@@ -6020,7 +6020,7 @@
         <v>45</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H121" s="3"/>
       <c r="I121" s="3">
@@ -6048,7 +6048,7 @@
         <v>45033</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C122" s="4">
         <v>2</v>
@@ -6063,7 +6063,7 @@
         <v>43</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H122" s="3">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         <v>45033</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C123" s="4">
         <v>2</v>
@@ -6102,13 +6102,13 @@
         <v>11</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H123" s="3">
         <v>1</v>
@@ -6144,7 +6144,7 @@
         <v>45033</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C124" s="4">
         <v>2</v>
@@ -6159,7 +6159,7 @@
         <v>45</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H124" s="3">
         <v>1</v>
@@ -6191,7 +6191,7 @@
         <v>45033</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C125" s="4">
         <v>2</v>
@@ -6200,13 +6200,13 @@
         <v>11</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H125" s="3">
         <v>1</v>
@@ -6236,7 +6236,7 @@
         <v>45033</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C126" s="4">
         <v>2</v>
@@ -6251,7 +6251,7 @@
         <v>45</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H126" s="3">
         <v>1</v>
@@ -6283,7 +6283,7 @@
         <v>45033</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C127" s="4">
         <v>2</v>
@@ -6298,7 +6298,7 @@
         <v>44</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H127" s="3">
         <v>1</v>
@@ -6330,7 +6330,7 @@
         <v>45033</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C128" s="4">
         <v>2</v>
@@ -6345,7 +6345,7 @@
         <v>43</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
@@ -6375,7 +6375,7 @@
         <v>45033</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C129" s="4">
         <v>2</v>
@@ -6390,7 +6390,7 @@
         <v>44</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
@@ -6418,7 +6418,7 @@
         <v>45033</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C130" s="4">
         <v>2</v>
@@ -6427,13 +6427,13 @@
         <v>11</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
@@ -6461,7 +6461,7 @@
         <v>45033</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C131" s="4">
         <v>2</v>
@@ -6476,7 +6476,7 @@
         <v>44</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
@@ -6504,7 +6504,7 @@
         <v>45033</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C132" s="4">
         <v>2</v>
@@ -6519,7 +6519,7 @@
         <v>45</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
@@ -6547,7 +6547,7 @@
         <v>45033</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C133" s="4">
         <v>2</v>
@@ -6562,7 +6562,7 @@
         <v>46</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
@@ -6590,7 +6590,7 @@
         <v>45033</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C134" s="4">
         <v>2</v>
@@ -6605,7 +6605,7 @@
         <v>43</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H134" s="3"/>
       <c r="I134" s="3">
@@ -6635,7 +6635,7 @@
         <v>45033</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C135" s="4">
         <v>2</v>
@@ -6650,7 +6650,7 @@
         <v>46</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H135" s="3"/>
       <c r="I135" s="3">
@@ -6680,7 +6680,7 @@
         <v>45033</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C136" s="4">
         <v>2</v>
@@ -6695,7 +6695,7 @@
         <v>46</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H136" s="3"/>
       <c r="I136" s="3">
@@ -6723,7 +6723,7 @@
         <v>45033</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C137" s="4">
         <v>2</v>
@@ -6738,7 +6738,7 @@
         <v>45</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H137" s="3"/>
       <c r="I137" s="3">
@@ -6766,7 +6766,7 @@
         <v>45033</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C138" s="4">
         <v>2</v>
@@ -6781,7 +6781,7 @@
         <v>45</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H138" s="3"/>
       <c r="I138" s="3">
@@ -6811,7 +6811,7 @@
         <v>45033</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C139" s="4">
         <v>2</v>
@@ -6826,7 +6826,7 @@
         <v>44</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H139" s="3"/>
       <c r="I139" s="3">
@@ -6856,7 +6856,7 @@
         <v>45033</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C140" s="4">
         <v>2</v>
@@ -6871,7 +6871,7 @@
         <v>43</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H140" s="3"/>
       <c r="I140" s="3">
@@ -6901,7 +6901,7 @@
         <v>45033</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C141" s="4">
         <v>2</v>
@@ -6916,7 +6916,7 @@
         <v>44</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H141" s="3"/>
       <c r="I141" s="3">
@@ -6944,7 +6944,7 @@
         <v>45033</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C142" s="4">
         <v>2</v>
@@ -6953,13 +6953,13 @@
         <v>12</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F142" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H142" s="3"/>
       <c r="I142" s="3">
@@ -6989,7 +6989,7 @@
         <v>45033</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C143" s="4">
         <v>2</v>
@@ -7004,7 +7004,7 @@
         <v>44</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H143" s="3"/>
       <c r="I143" s="3">
@@ -7032,7 +7032,7 @@
         <v>45033</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C144" s="4">
         <v>2</v>
@@ -7047,7 +7047,7 @@
         <v>45</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H144" s="3"/>
       <c r="I144" s="3">
@@ -7075,7 +7075,7 @@
         <v>45033</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C145" s="4">
         <v>2</v>
@@ -7090,7 +7090,7 @@
         <v>46</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H145" s="3"/>
       <c r="I145" s="3">
@@ -7120,7 +7120,7 @@
         <v>45033</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C146" s="4">
         <v>2</v>
@@ -7135,7 +7135,7 @@
         <v>43</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H146" s="3"/>
       <c r="I146" s="3">
@@ -7167,7 +7167,7 @@
         <v>45033</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C147" s="4">
         <v>2</v>
@@ -7182,7 +7182,7 @@
         <v>46</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H147" s="3"/>
       <c r="I147" s="3">
@@ -7212,7 +7212,7 @@
         <v>45033</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C148" s="4">
         <v>2</v>
@@ -7227,7 +7227,7 @@
         <v>46</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H148" s="3"/>
       <c r="I148" s="3">
@@ -7257,7 +7257,7 @@
         <v>45033</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C149" s="4">
         <v>2</v>
@@ -7272,7 +7272,7 @@
         <v>45</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H149" s="3"/>
       <c r="I149" s="3">
@@ -7302,7 +7302,7 @@
         <v>45033</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C150" s="4">
         <v>2</v>
@@ -7317,7 +7317,7 @@
         <v>45</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H150" s="3"/>
       <c r="I150" s="3">
@@ -7347,7 +7347,7 @@
         <v>45033</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C151" s="4">
         <v>2</v>
@@ -7362,7 +7362,7 @@
         <v>44</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H151" s="3"/>
       <c r="I151" s="3">
@@ -7392,7 +7392,7 @@
         <v>45033</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C152" s="4">
         <v>2</v>
@@ -7407,7 +7407,7 @@
         <v>43</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H152" s="3"/>
       <c r="I152" s="3">
@@ -7437,7 +7437,7 @@
         <v>45033</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C153" s="4">
         <v>2</v>
@@ -7446,13 +7446,13 @@
         <v>13</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H153" s="3"/>
       <c r="I153" s="3">
@@ -7482,7 +7482,7 @@
         <v>45033</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C154" s="4">
         <v>2</v>
@@ -7497,7 +7497,7 @@
         <v>45</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H154" s="3"/>
       <c r="I154" s="3">
@@ -7527,7 +7527,7 @@
         <v>45033</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C155" s="4">
         <v>2</v>
@@ -7536,13 +7536,13 @@
         <v>13</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F155" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H155" s="3"/>
       <c r="I155" s="3">
@@ -7572,7 +7572,7 @@
         <v>45033</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C156" s="4">
         <v>2</v>
@@ -7587,7 +7587,7 @@
         <v>45</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H156" s="3"/>
       <c r="I156" s="3">
@@ -7619,7 +7619,7 @@
         <v>45033</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C157" s="4">
         <v>2</v>
@@ -7634,7 +7634,7 @@
         <v>44</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H157" s="3"/>
       <c r="I157" s="3">
@@ -7664,7 +7664,7 @@
         <v>45033</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C158" s="4">
         <v>2</v>
@@ -7679,7 +7679,7 @@
         <v>43</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
@@ -7711,7 +7711,7 @@
         <v>45033</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C159" s="4">
         <v>2</v>
@@ -7726,7 +7726,7 @@
         <v>45</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
@@ -7754,7 +7754,7 @@
         <v>45033</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C160" s="4">
         <v>2</v>
@@ -7763,13 +7763,13 @@
         <v>14</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F160" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
@@ -7797,7 +7797,7 @@
         <v>45033</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C161" s="4">
         <v>2</v>
@@ -7812,7 +7812,7 @@
         <v>44</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
@@ -7840,7 +7840,7 @@
         <v>45033</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C162" s="4">
         <v>2</v>
@@ -7849,13 +7849,13 @@
         <v>14</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F162" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
@@ -7885,7 +7885,7 @@
         <v>45033</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C163" s="4">
         <v>2</v>
@@ -7900,7 +7900,7 @@
         <v>45</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
@@ -7930,7 +7930,7 @@
         <v>45033</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C164" s="4">
         <v>2</v>
@@ -7945,7 +7945,7 @@
         <v>43</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H164" s="3">
         <v>1</v>
@@ -7975,7 +7975,7 @@
         <v>45033</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C165" s="4">
         <v>2</v>
@@ -7990,7 +7990,7 @@
         <v>44</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H165" s="3">
         <v>1</v>
@@ -8020,7 +8020,7 @@
         <v>45033</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C166" s="4">
         <v>2</v>
@@ -8029,13 +8029,13 @@
         <v>14</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H166" s="3">
         <v>1</v>
@@ -8065,7 +8065,7 @@
         <v>45033</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C167" s="4">
         <v>2</v>
@@ -8080,7 +8080,7 @@
         <v>44</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H167" s="3">
         <v>1</v>
@@ -8110,7 +8110,7 @@
         <v>45033</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C168" s="4">
         <v>2</v>
@@ -8125,7 +8125,7 @@
         <v>45</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H168" s="3">
         <v>1</v>
@@ -8157,7 +8157,7 @@
         <v>45033</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C169" s="4">
         <v>2</v>
@@ -8172,7 +8172,7 @@
         <v>46</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H169" s="3">
         <v>1</v>
@@ -8204,7 +8204,7 @@
         <v>45033</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C170" s="4">
         <v>2</v>
@@ -8219,7 +8219,7 @@
         <v>43</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H170" s="3">
         <v>1</v>
@@ -8249,7 +8249,7 @@
         <v>45033</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C171" s="4">
         <v>2</v>
@@ -8264,7 +8264,7 @@
         <v>46</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H171" s="3">
         <v>1</v>
@@ -8294,7 +8294,7 @@
         <v>45033</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C172" s="4">
         <v>2</v>
@@ -8309,7 +8309,7 @@
         <v>46</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H172" s="3">
         <v>1</v>
@@ -8341,7 +8341,7 @@
         <v>45033</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C173" s="4">
         <v>2</v>
@@ -8356,7 +8356,7 @@
         <v>45</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H173" s="3">
         <v>1</v>
@@ -8386,7 +8386,7 @@
         <v>45033</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C174" s="4">
         <v>2</v>
@@ -8401,7 +8401,7 @@
         <v>45</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H174" s="3">
         <v>1</v>
@@ -8433,7 +8433,7 @@
         <v>45033</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C175" s="4">
         <v>2</v>
@@ -8448,7 +8448,7 @@
         <v>44</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H175" s="3">
         <v>1</v>
@@ -8482,7 +8482,7 @@
         <v>45033</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C176" s="4">
         <v>2</v>
@@ -8497,7 +8497,7 @@
         <v>43</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
@@ -8527,7 +8527,7 @@
         <v>45033</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C177" s="4">
         <v>2</v>
@@ -8542,7 +8542,7 @@
         <v>44</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
@@ -8570,7 +8570,7 @@
         <v>45033</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C178" s="4">
         <v>2</v>
@@ -8579,13 +8579,13 @@
         <v>15</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F178" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
@@ -8613,7 +8613,7 @@
         <v>45033</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C179" s="4">
         <v>2</v>
@@ -8628,7 +8628,7 @@
         <v>44</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
@@ -8656,7 +8656,7 @@
         <v>45033</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C180" s="4">
         <v>2</v>
@@ -8671,7 +8671,7 @@
         <v>45</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
@@ -8699,7 +8699,7 @@
         <v>45033</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C181" s="4">
         <v>2</v>
@@ -8714,7 +8714,7 @@
         <v>46</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
@@ -8742,7 +8742,7 @@
         <v>45033</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C182" s="4">
         <v>2</v>
@@ -8757,7 +8757,7 @@
         <v>43</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H182" s="3">
         <v>1</v>
@@ -8789,7 +8789,7 @@
         <v>45033</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C183" s="4">
         <v>2</v>
@@ -8798,13 +8798,13 @@
         <v>16</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F183" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H183" s="3">
         <v>1</v>
@@ -8836,7 +8836,7 @@
         <v>45033</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C184" s="4">
         <v>2</v>
@@ -8851,7 +8851,7 @@
         <v>45</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H184" s="3">
         <v>1</v>
@@ -8879,7 +8879,7 @@
         <v>45033</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C185" s="4">
         <v>2</v>
@@ -8888,13 +8888,13 @@
         <v>16</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F185" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H185" s="3">
         <v>1</v>
@@ -8922,7 +8922,7 @@
         <v>45033</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C186" s="4">
         <v>2</v>
@@ -8937,7 +8937,7 @@
         <v>45</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H186" s="3">
         <v>1</v>
@@ -8965,7 +8965,7 @@
         <v>45033</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C187" s="4">
         <v>2</v>
@@ -8980,7 +8980,7 @@
         <v>44</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H187" s="3">
         <v>1</v>
@@ -9010,7 +9010,7 @@
         <v>45033</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C188" s="4">
         <v>2</v>
@@ -9025,7 +9025,7 @@
         <v>43</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
@@ -9055,7 +9055,7 @@
         <v>45033</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C189" s="4">
         <v>2</v>
@@ -9070,7 +9070,7 @@
         <v>46</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
@@ -9100,7 +9100,7 @@
         <v>45033</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C190" s="4">
         <v>2</v>
@@ -9115,7 +9115,7 @@
         <v>46</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
@@ -9143,7 +9143,7 @@
         <v>45033</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C191" s="4">
         <v>2</v>
@@ -9158,7 +9158,7 @@
         <v>45</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
@@ -9188,7 +9188,7 @@
         <v>45033</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C192" s="4">
         <v>2</v>
@@ -9203,7 +9203,7 @@
         <v>45</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
@@ -9231,7 +9231,7 @@
         <v>45033</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C193" s="4">
         <v>2</v>
@@ -9246,7 +9246,7 @@
         <v>44</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
